--- a/data/Table_1.4b_Primary_Energy_Exports_by_Source.xlsx
+++ b/data/Table_1.4b_Primary_Energy_Exports_by_Source.xlsx
@@ -21,13 +21,13 @@
     <t>U.S. Energy Information Administration</t>
   </si>
   <si>
-    <t>July 2020 Monthly Energy Review</t>
+    <t>August 2020 Monthly Energy Review</t>
   </si>
   <si>
-    <t>Release Date: July 28, 2020</t>
+    <t>Release Date: August 26, 2020</t>
   </si>
   <si>
-    <t>Next Update: August 26, 2020</t>
+    <t>Next Update: September 24, 2020</t>
   </si>
   <si>
     <t>Table 1.4b Primary Energy Exports by Source</t>
@@ -476,7 +476,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J580"/>
+  <dimension ref="A1:J581"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A13" sqref="A13"/>
@@ -18552,7 +18552,7 @@
         <v>0.002558</v>
       </c>
       <c r="D574">
-        <v>0.429269</v>
+        <v>0.429607</v>
       </c>
       <c r="E574">
         <v>0.598572</v>
@@ -18570,7 +18570,7 @@
         <v>0.004998</v>
       </c>
       <c r="J574">
-        <v>2.064475</v>
+        <v>2.064813</v>
       </c>
     </row>
     <row r="575" spans="1:10">
@@ -18648,7 +18648,7 @@
         <v>0.001543</v>
       </c>
       <c r="D577">
-        <v>0.514426</v>
+        <v>0.514431</v>
       </c>
       <c r="E577">
         <v>0.575212</v>
@@ -18663,10 +18663,10 @@
         <v>0.01986</v>
       </c>
       <c r="I577">
-        <v>0.004737</v>
+        <v>0.004863</v>
       </c>
       <c r="J577">
-        <v>2.179979</v>
+        <v>2.18011</v>
       </c>
     </row>
     <row r="578" spans="1:10">
@@ -18695,10 +18695,10 @@
         <v>0.024649</v>
       </c>
       <c r="I578">
-        <v>0.00425</v>
+        <v>0.005648</v>
       </c>
       <c r="J578">
-        <v>2.1687</v>
+        <v>2.170097</v>
       </c>
     </row>
     <row r="579" spans="1:10">
@@ -18712,7 +18712,7 @@
         <v>0.001348</v>
       </c>
       <c r="D579">
-        <v>0.501381</v>
+        <v>0.501462</v>
       </c>
       <c r="E579">
         <v>0.629375</v>
@@ -18727,10 +18727,10 @@
         <v>0.022792</v>
       </c>
       <c r="I579">
-        <v>0.005143</v>
+        <v>0.004495</v>
       </c>
       <c r="J579">
-        <v>2.262525</v>
+        <v>2.261957</v>
       </c>
     </row>
     <row r="580" spans="1:10">
@@ -18756,13 +18756,45 @@
         <v>1.324638</v>
       </c>
       <c r="H580">
-        <v>0.020304</v>
+        <v>0.019738</v>
       </c>
       <c r="I580">
-        <v>0.003963</v>
+        <v>0.005034</v>
       </c>
       <c r="J580">
-        <v>1.910732</v>
+        <v>1.911236</v>
+      </c>
+    </row>
+    <row r="581" spans="1:10">
+      <c r="A581" s="6">
+        <v>43952</v>
+      </c>
+      <c r="B581">
+        <v>0.117341</v>
+      </c>
+      <c r="C581">
+        <v>0.000983</v>
+      </c>
+      <c r="D581">
+        <v>0.398429</v>
+      </c>
+      <c r="E581">
+        <v>0.518209</v>
+      </c>
+      <c r="F581">
+        <v>0.596665</v>
+      </c>
+      <c r="G581">
+        <v>1.114875</v>
+      </c>
+      <c r="H581">
+        <v>0.017267</v>
+      </c>
+      <c r="I581">
+        <v>0.005171</v>
+      </c>
+      <c r="J581">
+        <v>1.654066</v>
       </c>
     </row>
   </sheetData>
@@ -21153,7 +21185,7 @@
         <v>0.02399</v>
       </c>
       <c r="D83">
-        <v>4.697881</v>
+        <v>4.698219</v>
       </c>
       <c r="E83">
         <v>6.203528</v>
@@ -21171,7 +21203,7 @@
         <v>0.068267</v>
       </c>
       <c r="J83">
-        <v>23.519181</v>
+        <v>23.519519</v>
       </c>
     </row>
   </sheetData>
